--- a/rosters/2023/Portland/Portland.xlsx
+++ b/rosters/2023/Portland/Portland.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Josh Hart</t>
-  </si>
-  <si>
     <t>Drew Eubanks</t>
   </si>
   <si>
@@ -67,48 +64,54 @@
     <t>Damian Lillard</t>
   </si>
   <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
+    <t>Jabari Walker</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
+  </si>
+  <si>
     <t>Justise Winslow</t>
   </si>
   <si>
-    <t>Trendon Watford</t>
-  </si>
-  <si>
-    <t>Jabari Walker</t>
-  </si>
-  <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
     <t>Keon Johnson</t>
   </si>
   <si>
-    <t>Greg Brown III</t>
-  </si>
-  <si>
-    <t>Gary Payton II</t>
-  </si>
-  <si>
     <t>John Butler (TW)</t>
   </si>
   <si>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
     <t>Ibou Badji (TW)</t>
   </si>
   <si>
+    <t>Ryan Arcidiacono</t>
+  </si>
+  <si>
+    <t>Kevin Knox</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>6-6</t>
   </si>
   <si>
@@ -118,21 +121,24 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
     <t>6-5</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-11</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>7-1</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>May 30, 2003</t>
   </si>
   <si>
@@ -142,9 +148,6 @@
     <t>March 12, 1994</t>
   </si>
   <si>
-    <t>March 6, 1995</t>
-  </si>
-  <si>
     <t>February 1, 1997</t>
   </si>
   <si>
@@ -154,33 +157,39 @@
     <t>July 15, 1990</t>
   </si>
   <si>
+    <t>November 9, 2000</t>
+  </si>
+  <si>
+    <t>July 30, 2002</t>
+  </si>
+  <si>
+    <t>February 11, 2000</t>
+  </si>
+  <si>
     <t>March 26, 1996</t>
   </si>
   <si>
-    <t>November 9, 2000</t>
-  </si>
-  <si>
-    <t>July 30, 2002</t>
-  </si>
-  <si>
-    <t>February 11, 2000</t>
-  </si>
-  <si>
     <t>March 10, 2002</t>
   </si>
   <si>
-    <t>September 1, 2001</t>
-  </si>
-  <si>
-    <t>December 1, 1992</t>
-  </si>
-  <si>
     <t>December 4, 2002</t>
   </si>
   <si>
+    <t>September 1, 1999</t>
+  </si>
+  <si>
     <t>October 13, 2002</t>
   </si>
   <si>
+    <t>March 26, 1994</t>
+  </si>
+  <si>
+    <t>August 11, 1999</t>
+  </si>
+  <si>
+    <t>March 4, 1997</t>
+  </si>
+  <si>
     <t>ca</t>
   </si>
   <si>
@@ -202,58 +211,55 @@
     <t>8</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Kentucky</t>
   </si>
   <si>
     <t>Syracuse</t>
   </si>
   <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
+    <t>Weber State</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Florida State</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Oregon State</t>
-  </si>
-  <si>
-    <t>Weber State</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Florida State</t>
+    <t>Washington</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sharpsh01.html</t>
@@ -265,9 +271,6 @@
     <t>https://www.basketball-reference.com/players/g/grantje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hartjo01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/e/eubandr01.html</t>
   </si>
   <si>
@@ -277,31 +280,37 @@
     <t>https://www.basketball-reference.com/players/l/lillada01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/watfotr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/walkeja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/littlna01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/winslju01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/watfotr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/walkeja01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/l/littlna01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/johnske07.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/browngr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/p/paytoga02.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/butlejo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/r/reddica01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/badjiib01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/arcidry01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
   </si>
 </sst>
 </file>
@@ -672,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,28 +730,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -756,25 +765,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -788,28 +797,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -817,34 +826,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -852,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -861,25 +870,22 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>245</v>
+        <v>290</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -887,31 +893,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -919,34 +928,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -954,34 +963,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -989,34 +998,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1024,34 +1033,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1059,34 +1068,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
         <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1094,34 +1103,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1129,104 +1138,95 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F16">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1237,25 +1237,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>215</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="F17">
-        <v>240</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F18">
+        <v>201</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>95</v>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1276,6 +1311,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Portland/Portland.xlsx
+++ b/rosters/2023/Portland/Portland.xlsx
@@ -52,18 +52,18 @@
     <t>Anfernee Simons</t>
   </si>
   <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
     <t>Jerami Grant</t>
   </si>
   <si>
-    <t>Drew Eubanks</t>
+    <t>Damian Lillard</t>
   </si>
   <si>
     <t>Jusuf Nurkić</t>
   </si>
   <si>
-    <t>Damian Lillard</t>
-  </si>
-  <si>
     <t>Trendon Watford</t>
   </si>
   <si>
@@ -85,27 +85,27 @@
     <t>Cam Reddish</t>
   </si>
   <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Kevin Knox</t>
+  </si>
+  <si>
+    <t>Ryan Arcidiacono</t>
+  </si>
+  <si>
     <t>Ibou Badji (TW)</t>
   </si>
   <si>
-    <t>Ryan Arcidiacono</t>
-  </si>
-  <si>
-    <t>Kevin Knox</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -118,18 +118,18 @@
     <t>6-3</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-9</t>
+    <t>6-2</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>June 8, 1999</t>
   </si>
   <si>
+    <t>February 1, 1997</t>
+  </si>
+  <si>
     <t>March 12, 1994</t>
   </si>
   <si>
-    <t>February 1, 1997</t>
+    <t>July 15, 1990</t>
   </si>
   <si>
     <t>August 23, 1994</t>
   </si>
   <si>
-    <t>July 15, 1990</t>
-  </si>
-  <si>
     <t>November 9, 2000</t>
   </si>
   <si>
@@ -178,18 +178,18 @@
     <t>September 1, 1999</t>
   </si>
   <si>
+    <t>March 4, 1997</t>
+  </si>
+  <si>
+    <t>August 11, 1999</t>
+  </si>
+  <si>
+    <t>March 26, 1994</t>
+  </si>
+  <si>
     <t>October 13, 2002</t>
   </si>
   <si>
-    <t>March 26, 1994</t>
-  </si>
-  <si>
-    <t>August 11, 1999</t>
-  </si>
-  <si>
-    <t>March 4, 1997</t>
-  </si>
-  <si>
     <t>ca</t>
   </si>
   <si>
@@ -229,12 +229,12 @@
     <t>Kentucky</t>
   </si>
   <si>
+    <t>Oregon State</t>
+  </si>
+  <si>
     <t>Syracuse</t>
   </si>
   <si>
-    <t>Oregon State</t>
-  </si>
-  <si>
     <t>Weber State</t>
   </si>
   <si>
@@ -256,30 +256,30 @@
     <t>Florida State</t>
   </si>
   <si>
+    <t>Washington</t>
+  </si>
+  <si>
     <t>Villanova</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/s/sharpsh01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/simonan01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/e/eubandr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/g/grantje01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/e/eubandr01.html</t>
+    <t>https://www.basketball-reference.com/players/l/lillada01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/n/nurkiju01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/lillada01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/w/watfotr01.html</t>
   </si>
   <si>
@@ -301,16 +301,16 @@
     <t>https://www.basketball-reference.com/players/r/reddica01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/a/arcidry01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/badjiib01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/arcidry01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -803,7 +803,7 @@
         <v>34</v>
       </c>
       <c r="F4">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -812,7 +812,7 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
         <v>71</v>
@@ -826,7 +826,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -838,7 +838,7 @@
         <v>35</v>
       </c>
       <c r="F5">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -847,7 +847,7 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
         <v>72</v>
@@ -861,28 +861,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>36</v>
       </c>
       <c r="F6">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>86</v>
@@ -893,31 +896,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="F7">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>87</v>
@@ -934,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8">
         <v>240</v>
@@ -972,7 +972,7 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>215</v>
@@ -1109,7 +1109,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1147,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>218</v>
@@ -1172,26 +1172,32 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>95</v>
@@ -1201,17 +1207,20 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1220,10 +1229,10 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>96</v>
@@ -1233,17 +1242,20 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F17">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
         <v>56</v>
@@ -1252,10 +1264,10 @@
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>97</v>
@@ -1269,25 +1281,22 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>98</v>

--- a/rosters/2023/Portland/Portland.xlsx
+++ b/rosters/2023/Portland/Portland.xlsx
@@ -49,45 +49,45 @@
     <t>Shaedon Sharpe</t>
   </si>
   <si>
+    <t>Drew Eubanks</t>
+  </si>
+  <si>
+    <t>Jerami Grant</t>
+  </si>
+  <si>
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>Drew Eubanks</t>
-  </si>
-  <si>
-    <t>Jerami Grant</t>
-  </si>
-  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
     <t>Jusuf Nurkić</t>
   </si>
   <si>
-    <t>Trendon Watford</t>
+    <t>Nassir Little</t>
   </si>
   <si>
     <t>Jabari Walker</t>
   </si>
   <si>
-    <t>Nassir Little</t>
+    <t>Keon Johnson</t>
   </si>
   <si>
     <t>Justise Winslow</t>
   </si>
   <si>
-    <t>Keon Johnson</t>
+    <t>Cam Reddish</t>
+  </si>
+  <si>
+    <t>Matisse Thybulle</t>
   </si>
   <si>
     <t>John Butler (TW)</t>
   </si>
   <si>
-    <t>Cam Reddish</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
     <t>Kevin Knox</t>
   </si>
   <si>
@@ -115,15 +115,15 @@
     <t>6-6</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-3</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-2</t>
   </si>
   <si>
@@ -142,45 +142,45 @@
     <t>May 30, 2003</t>
   </si>
   <si>
+    <t>February 1, 1997</t>
+  </si>
+  <si>
+    <t>March 12, 1994</t>
+  </si>
+  <si>
     <t>June 8, 1999</t>
   </si>
   <si>
-    <t>February 1, 1997</t>
-  </si>
-  <si>
-    <t>March 12, 1994</t>
-  </si>
-  <si>
     <t>July 15, 1990</t>
   </si>
   <si>
+    <t>November 9, 2000</t>
+  </si>
+  <si>
     <t>August 23, 1994</t>
   </si>
   <si>
-    <t>November 9, 2000</t>
+    <t>February 11, 2000</t>
   </si>
   <si>
     <t>July 30, 2002</t>
   </si>
   <si>
-    <t>February 11, 2000</t>
+    <t>March 10, 2002</t>
   </si>
   <si>
     <t>March 26, 1996</t>
   </si>
   <si>
-    <t>March 10, 2002</t>
+    <t>September 1, 1999</t>
+  </si>
+  <si>
+    <t>March 4, 1997</t>
   </si>
   <si>
     <t>December 4, 2002</t>
   </si>
   <si>
-    <t>September 1, 1999</t>
-  </si>
-  <si>
-    <t>March 4, 1997</t>
-  </si>
-  <si>
     <t>August 11, 1999</t>
   </si>
   <si>
@@ -241,67 +241,67 @@
     <t>LSU</t>
   </si>
   <si>
+    <t>UNC</t>
+  </si>
+  <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>UNC</t>
+    <t>Tennessee</t>
   </si>
   <si>
     <t>Duke</t>
   </si>
   <si>
-    <t>Tennessee</t>
+    <t>Washington</t>
   </si>
   <si>
     <t>Florida State</t>
   </si>
   <si>
-    <t>Washington</t>
-  </si>
-  <si>
     <t>Villanova</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sharpsh01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/e/eubandr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/grantje01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/simonan01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/e/eubandr01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/grantje01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/l/lillada01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/watfotr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/n/nurkiju01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/watfotr01.html</t>
+    <t>https://www.basketball-reference.com/players/l/littlna01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/walkeja01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/littlna01.html</t>
+    <t>https://www.basketball-reference.com/players/j/johnske07.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/winslju01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/j/johnske07.html</t>
+    <t>https://www.basketball-reference.com/players/r/reddica01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/butlejo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/r/reddica01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
@@ -759,19 +759,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
       </c>
       <c r="F3">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -781,6 +781,9 @@
       </c>
       <c r="I3" t="s">
         <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>83</v>
@@ -791,19 +794,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
@@ -812,10 +815,10 @@
         <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>84</v>
@@ -826,19 +829,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -847,10 +850,7 @@
         <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>85</v>
@@ -896,28 +896,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>87</v>
@@ -928,31 +931,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>88</v>
@@ -963,7 +963,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -972,10 +972,10 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
         <v>48</v>
@@ -984,7 +984,7 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
         <v>75</v>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1007,10 +1007,10 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
         <v>49</v>
@@ -1019,7 +1019,7 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J10" t="s">
         <v>76</v>
@@ -1033,19 +1033,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="G11" t="s">
         <v>50</v>
@@ -1054,7 +1054,7 @@
         <v>59</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1068,19 +1068,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -1089,7 +1089,7 @@
         <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
@@ -1103,19 +1103,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -1124,10 +1124,10 @@
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>93</v>
@@ -1138,19 +1138,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G14" t="s">
         <v>53</v>
@@ -1162,7 +1162,7 @@
         <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>94</v>
@@ -1173,19 +1173,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1194,7 +1194,7 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J15" t="s">
         <v>80</v>
@@ -1252,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>195</v>

--- a/rosters/2023/Portland/Portland.xlsx
+++ b/rosters/2023/Portland/Portland.xlsx
@@ -85,12 +85,12 @@
     <t>Matisse Thybulle</t>
   </si>
   <si>
+    <t>Kevin Knox</t>
+  </si>
+  <si>
     <t>John Butler (TW)</t>
   </si>
   <si>
-    <t>Kevin Knox</t>
-  </si>
-  <si>
     <t>Ryan Arcidiacono</t>
   </si>
   <si>
@@ -133,12 +133,12 @@
     <t>6-5</t>
   </si>
   <si>
+    <t>6-7</t>
+  </si>
+  <si>
     <t>7-1</t>
   </si>
   <si>
-    <t>6-7</t>
-  </si>
-  <si>
     <t>May 30, 2003</t>
   </si>
   <si>
@@ -178,12 +178,12 @@
     <t>March 4, 1997</t>
   </si>
   <si>
+    <t>August 11, 1999</t>
+  </si>
+  <si>
     <t>December 4, 2002</t>
   </si>
   <si>
-    <t>August 11, 1999</t>
-  </si>
-  <si>
     <t>March 26, 1994</t>
   </si>
   <si>
@@ -301,10 +301,10 @@
     <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/b/butlejo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/a/arcidry01.html</t>
@@ -1173,19 +1173,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1194,10 +1194,10 @@
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>95</v>
@@ -1208,19 +1208,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1229,10 +1229,10 @@
         <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>96</v>
@@ -1284,7 +1284,7 @@
         <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>240</v>

--- a/rosters/2023/Portland/Portland.xlsx
+++ b/rosters/2023/Portland/Portland.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -58,40 +58,46 @@
     <t>Anfernee Simons</t>
   </si>
   <si>
+    <t>Trendon Watford</t>
+  </si>
+  <si>
     <t>Damian Lillard</t>
   </si>
   <si>
-    <t>Trendon Watford</t>
+    <t>Jabari Walker</t>
+  </si>
+  <si>
+    <t>Nassir Little</t>
   </si>
   <si>
     <t>Jusuf Nurkić</t>
   </si>
   <si>
-    <t>Nassir Little</t>
-  </si>
-  <si>
-    <t>Jabari Walker</t>
-  </si>
-  <si>
     <t>Keon Johnson</t>
   </si>
   <si>
     <t>Justise Winslow</t>
   </si>
   <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
+    <t>Kevin Knox</t>
+  </si>
+  <si>
     <t>Cam Reddish</t>
   </si>
   <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Kevin Knox</t>
-  </si>
-  <si>
     <t>John Butler (TW)</t>
   </si>
   <si>
-    <t>Ryan Arcidiacono</t>
+    <t>Skylar Mays</t>
+  </si>
+  <si>
+    <t>Jeenathan Williams</t>
+  </si>
+  <si>
+    <t>Chance Comanche</t>
   </si>
   <si>
     <t>Ibou Badji (TW)</t>
@@ -127,18 +133,24 @@
     <t>6-2</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-11</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
     <t>7-1</t>
   </si>
   <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>May 30, 2003</t>
   </si>
   <si>
@@ -151,40 +163,46 @@
     <t>June 8, 1999</t>
   </si>
   <si>
+    <t>November 9, 2000</t>
+  </si>
+  <si>
     <t>July 15, 1990</t>
   </si>
   <si>
-    <t>November 9, 2000</t>
+    <t>July 30, 2002</t>
+  </si>
+  <si>
+    <t>February 11, 2000</t>
   </si>
   <si>
     <t>August 23, 1994</t>
   </si>
   <si>
-    <t>February 11, 2000</t>
-  </si>
-  <si>
-    <t>July 30, 2002</t>
-  </si>
-  <si>
     <t>March 10, 2002</t>
   </si>
   <si>
     <t>March 26, 1996</t>
   </si>
   <si>
+    <t>March 4, 1997</t>
+  </si>
+  <si>
+    <t>August 11, 1999</t>
+  </si>
+  <si>
     <t>September 1, 1999</t>
   </si>
   <si>
-    <t>March 4, 1997</t>
-  </si>
-  <si>
-    <t>August 11, 1999</t>
-  </si>
-  <si>
     <t>December 4, 2002</t>
   </si>
   <si>
-    <t>March 26, 1994</t>
+    <t>September 5, 1997</t>
+  </si>
+  <si>
+    <t>February 12, 1999</t>
+  </si>
+  <si>
+    <t>April 14, 1996</t>
   </si>
   <si>
     <t>October 13, 2002</t>
@@ -211,19 +229,19 @@
     <t>8</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>5</t>
+    <t>2</t>
   </si>
   <si>
     <t>Kentucky</t>
@@ -235,18 +253,18 @@
     <t>Syracuse</t>
   </si>
   <si>
+    <t>LSU</t>
+  </si>
+  <si>
     <t>Weber State</t>
   </si>
   <si>
-    <t>LSU</t>
+    <t>Colorado</t>
   </si>
   <si>
     <t>UNC</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
     <t>Tennessee</t>
   </si>
   <si>
@@ -259,7 +277,10 @@
     <t>Florida State</t>
   </si>
   <si>
-    <t>Villanova</t>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sharpsh01.html</t>
@@ -274,40 +295,46 @@
     <t>https://www.basketball-reference.com/players/s/simonan01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/w/watfotr01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/l/lillada01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/w/watfotr01.html</t>
+    <t>https://www.basketball-reference.com/players/w/walkeja01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/l/littlna01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/n/nurkiju01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/l/littlna01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/walkeja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/j/johnske07.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/w/winslju01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/r/reddica01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/t/thybuma01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/k/knoxke01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/b/butlejo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/arcidry01.html</t>
+    <t>https://www.basketball-reference.com/players/m/mayssk01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/willije02.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/c/comanch01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/b/badjiib01.html</t>
@@ -681,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,28 +757,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -765,28 +792,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -800,28 +827,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -835,25 +862,25 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -861,34 +888,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -896,34 +923,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -931,31 +958,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -969,28 +999,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9">
         <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -998,34 +1028,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1039,28 +1066,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>186</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1074,28 +1101,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>222</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1103,34 +1130,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F13">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1138,34 +1165,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1173,34 +1200,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1214,28 +1241,28 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1243,63 +1270,133 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
       <c r="C18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18">
+        <v>205</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19">
+        <v>210</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20">
         <v>240</v>
       </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>98</v>
+      <c r="G20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1321,6 +1418,8 @@
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
     <hyperlink ref="K18" r:id="rId17"/>
+    <hyperlink ref="K19" r:id="rId18"/>
+    <hyperlink ref="K20" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
